--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
@@ -229,20 +229,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="c3bi1rlr" xfId="1"/>
-    <cellStyle name="c3bi1rlr_Alternate" xfId="2"/>
-    <cellStyle name="4bk1cakd" xfId="3"/>
-    <cellStyle name="4bk1cakd_Alternate" xfId="4"/>
-    <cellStyle name="nt5yq3iz" xfId="5"/>
-    <cellStyle name="nt5yq3iz_Alternate" xfId="6"/>
-    <cellStyle name="ju0ptbtv" xfId="7"/>
-    <cellStyle name="ju0ptbtv_Alternate" xfId="8"/>
-    <cellStyle name="curcnc0h" xfId="9"/>
-    <cellStyle name="curcnc0h_Alternate" xfId="10"/>
-    <cellStyle name="vq3f42hv" xfId="11"/>
-    <cellStyle name="vq3f42hv_Alternate" xfId="12"/>
-    <cellStyle name="v3zbqndm" xfId="13"/>
-    <cellStyle name="v3zbqndm_Alternate" xfId="14"/>
+    <cellStyle name="gh132hax" xfId="1"/>
+    <cellStyle name="gh132hax_Alternate" xfId="2"/>
+    <cellStyle name="4ni1wtyv" xfId="3"/>
+    <cellStyle name="4ni1wtyv_Alternate" xfId="4"/>
+    <cellStyle name="gs2ncivz" xfId="5"/>
+    <cellStyle name="gs2ncivz_Alternate" xfId="6"/>
+    <cellStyle name="ehm2e2sl" xfId="7"/>
+    <cellStyle name="ehm2e2sl_Alternate" xfId="8"/>
+    <cellStyle name="0old3uiu" xfId="9"/>
+    <cellStyle name="0old3uiu_Alternate" xfId="10"/>
+    <cellStyle name="mebdg1dc" xfId="11"/>
+    <cellStyle name="mebdg1dc_Alternate" xfId="12"/>
+    <cellStyle name="xxwnpuza" xfId="13"/>
+    <cellStyle name="xxwnpuza_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample13/Sample-13.xlsx
@@ -229,20 +229,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="gh132hax" xfId="1"/>
-    <cellStyle name="gh132hax_Alternate" xfId="2"/>
-    <cellStyle name="4ni1wtyv" xfId="3"/>
-    <cellStyle name="4ni1wtyv_Alternate" xfId="4"/>
-    <cellStyle name="gs2ncivz" xfId="5"/>
-    <cellStyle name="gs2ncivz_Alternate" xfId="6"/>
-    <cellStyle name="ehm2e2sl" xfId="7"/>
-    <cellStyle name="ehm2e2sl_Alternate" xfId="8"/>
-    <cellStyle name="0old3uiu" xfId="9"/>
-    <cellStyle name="0old3uiu_Alternate" xfId="10"/>
-    <cellStyle name="mebdg1dc" xfId="11"/>
-    <cellStyle name="mebdg1dc_Alternate" xfId="12"/>
-    <cellStyle name="xxwnpuza" xfId="13"/>
-    <cellStyle name="xxwnpuza_Alternate" xfId="14"/>
+    <cellStyle name="bhzhi1g1" xfId="1"/>
+    <cellStyle name="bhzhi1g1_Alternate" xfId="2"/>
+    <cellStyle name="wbcxvaxy" xfId="3"/>
+    <cellStyle name="wbcxvaxy_Alternate" xfId="4"/>
+    <cellStyle name="cxc0bul3" xfId="5"/>
+    <cellStyle name="cxc0bul3_Alternate" xfId="6"/>
+    <cellStyle name="yw1uzfej" xfId="7"/>
+    <cellStyle name="yw1uzfej_Alternate" xfId="8"/>
+    <cellStyle name="zygip2mi" xfId="9"/>
+    <cellStyle name="zygip2mi_Alternate" xfId="10"/>
+    <cellStyle name="nabjkzke" xfId="11"/>
+    <cellStyle name="nabjkzke_Alternate" xfId="12"/>
+    <cellStyle name="viseafbr" xfId="13"/>
+    <cellStyle name="viseafbr_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
